--- a/outputs-HGR-r202/f__Actinomycetaceae.xlsx
+++ b/outputs-HGR-r202/f__Actinomycetaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>g__Pauljensenia</t>
+          <t>g__Pauljensenia(reject)</t>
         </is>
       </c>
     </row>
